--- a/Cleaning_edu/Cleaned_edu62.xlsx
+++ b/Cleaning_edu/Cleaned_edu62.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iteso\2 SEMESTRE\Proyectos\Programacion analisis\Proyecto_prog_analisis\Cleaning_edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051C67E6-C35A-4A9F-A7E0-DF37FA9868D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA799F76-F652-4D85-99BD-972AFBA0BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{178ADD6A-5AF0-42AB-A977-959A298948BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{178ADD6A-5AF0-42AB-A977-959A298948BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -155,17 +155,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CC6985-0714-47E2-826D-0678A94196C0}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,16 +581,6 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -602,10 +589,10 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>1294387.0946763158</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -623,18 +610,18 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>1169204.6755659038</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -643,7 +630,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>1294689.6883670695</v>
       </c>
     </row>
@@ -654,7 +641,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>1249940.476607641</v>
       </c>
     </row>
@@ -665,7 +652,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>1290873.126458369</v>
       </c>
     </row>
@@ -676,7 +663,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>1248990.1845603436</v>
       </c>
     </row>
@@ -687,7 +674,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>1292111.6673701522</v>
       </c>
     </row>
@@ -698,7 +685,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>1293609.5607063351</v>
       </c>
     </row>
@@ -709,7 +696,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
         <v>1251366.8749303576</v>
       </c>
     </row>
@@ -720,7 +707,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <v>1291691.0016659619</v>
       </c>
     </row>
@@ -731,7 +718,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>1255214.0435974775</v>
       </c>
     </row>
@@ -742,7 +729,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>1293697.4581700552</v>
       </c>
     </row>
@@ -753,7 +740,7 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
         <v>1474078.8972168628</v>
       </c>
     </row>
@@ -764,7 +751,7 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="1">
         <v>1420359.6599706067</v>
       </c>
     </row>
@@ -775,7 +762,7 @@
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="1">
         <v>1508079.3107401303</v>
       </c>
     </row>
@@ -786,7 +773,7 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>1515017.3551807865</v>
       </c>
     </row>
@@ -797,7 +784,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="1">
         <v>1580998.7098753368</v>
       </c>
     </row>
@@ -808,7 +795,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="1">
         <v>1536780.1720186877</v>
       </c>
     </row>
@@ -819,7 +806,7 @@
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
         <v>1491281.7359413593</v>
       </c>
     </row>
@@ -830,7 +817,7 @@
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>1535600.0972908831</v>
       </c>
     </row>
@@ -841,7 +828,7 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="1">
         <v>1395860.5407872857</v>
       </c>
     </row>
@@ -852,7 +839,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="1">
         <v>1532377.7331481907</v>
       </c>
     </row>
@@ -863,7 +850,7 @@
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="1">
         <v>1388125.6931705882</v>
       </c>
     </row>
@@ -874,7 +861,7 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="1">
         <v>1471735.5443276674</v>
       </c>
     </row>
@@ -885,7 +872,7 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="1">
         <v>1360475.7770912792</v>
       </c>
     </row>
@@ -896,7 +883,7 @@
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="1">
         <v>1239376.3459472719</v>
       </c>
     </row>
@@ -907,7 +894,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="1">
         <v>1356516.6557286356</v>
       </c>
     </row>
@@ -918,7 +905,7 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="1">
         <v>1311053.715288741</v>
       </c>
     </row>
@@ -929,7 +916,7 @@
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="1">
         <v>1367750.1148593908</v>
       </c>
     </row>
@@ -940,7 +927,7 @@
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="1">
         <v>1328617.4006821462</v>
       </c>
     </row>
@@ -951,7 +938,7 @@
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="1">
         <v>1373800.141687877</v>
       </c>
     </row>
@@ -962,7 +949,7 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="1">
         <v>1365710.0547265785</v>
       </c>
     </row>
@@ -973,7 +960,7 @@
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="1">
         <v>1314369.8315728265</v>
       </c>
     </row>
@@ -984,7 +971,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="1">
         <v>1365639.1005985208</v>
       </c>
     </row>
@@ -995,7 +982,7 @@
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="1">
         <v>1323940.8456907514</v>
       </c>
     </row>
@@ -1006,7 +993,7 @@
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="1">
         <v>1355288.5111146271</v>
       </c>
     </row>
@@ -1017,7 +1004,7 @@
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="1">
         <v>1612082.757570701</v>
       </c>
     </row>
@@ -1028,7 +1015,7 @@
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="1">
         <v>1516670.0307558903</v>
       </c>
     </row>
@@ -1039,7 +1026,7 @@
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="1">
         <v>1617964.8103961879</v>
       </c>
     </row>
@@ -1050,7 +1037,7 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="1">
         <v>1565183.4090505296</v>
       </c>
     </row>
@@ -1061,7 +1048,7 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="1">
         <v>1619662.9166731238</v>
       </c>
     </row>
@@ -1072,7 +1059,7 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="1">
         <v>1567418.680866882</v>
       </c>
     </row>
@@ -1083,7 +1070,7 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="1">
         <v>1620728.442944848</v>
       </c>
     </row>
@@ -1094,7 +1081,7 @@
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="1">
         <v>1620595.9664480176</v>
       </c>
     </row>
@@ -1105,7 +1092,7 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="1">
         <v>1566409.5305401573</v>
       </c>
     </row>
@@ -1116,7 +1103,7 @@
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="1">
         <v>1618647.4930572761</v>
       </c>
     </row>
@@ -1127,7 +1114,7 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="1">
         <v>1567041.3382661934</v>
       </c>
     </row>
@@ -1138,7 +1125,7 @@
       <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="1">
         <v>1622404.8583171559</v>
       </c>
     </row>
@@ -1149,7 +1136,7 @@
       <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="1">
         <v>1754573.6530250036</v>
       </c>
     </row>
@@ -1160,7 +1147,7 @@
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="1">
         <v>1586569.9960779368</v>
       </c>
     </row>
@@ -1171,7 +1158,7 @@
       <c r="B52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="1">
         <v>1755608.5487667825</v>
       </c>
     </row>
@@ -1182,7 +1169,7 @@
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="1">
         <v>1698761.8539969593</v>
       </c>
     </row>
@@ -1193,7 +1180,7 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="1">
         <v>1748763.6968270496</v>
       </c>
     </row>
@@ -1204,7 +1191,7 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="1">
         <v>1695776.1810151278</v>
       </c>
     </row>
@@ -1215,7 +1202,7 @@
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="1">
         <v>1756047.2834693447</v>
       </c>
     </row>
@@ -1226,7 +1213,7 @@
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="1">
         <v>1755460.4578829964</v>
       </c>
     </row>
@@ -1237,7 +1224,7 @@
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="1">
         <v>1698025.7380679906</v>
       </c>
     </row>
@@ -1248,7 +1235,7 @@
       <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="1">
         <v>1755271.8836635451</v>
       </c>
     </row>
@@ -1259,7 +1246,7 @@
       <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="1">
         <v>1699285.1670557163</v>
       </c>
     </row>
@@ -1270,7 +1257,7 @@
       <c r="B61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="1">
         <v>1756984.7730434339</v>
       </c>
     </row>
@@ -1281,7 +1268,7 @@
       <c r="B62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="1">
         <v>1746573.0350879401</v>
       </c>
     </row>
@@ -1292,7 +1279,7 @@
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="1">
         <v>1578355.047474439</v>
       </c>
     </row>
@@ -1303,7 +1290,7 @@
       <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="1">
         <v>1746227.5355545052</v>
       </c>
     </row>
@@ -1314,7 +1301,7 @@
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="1">
         <v>1689140.1473126882</v>
       </c>
     </row>
@@ -1325,7 +1312,7 @@
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="1">
         <v>1746209.4032121033</v>
       </c>
     </row>
@@ -1336,7 +1323,7 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="1">
         <v>1687287.2647006973</v>
       </c>
     </row>
@@ -1347,7 +1334,7 @@
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="1">
         <v>1746378.0507332704</v>
       </c>
     </row>
@@ -1358,7 +1345,7 @@
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="1">
         <v>1744058.4996163482</v>
       </c>
     </row>
@@ -1369,7 +1356,7 @@
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="1">
         <v>1685998.217560315</v>
       </c>
     </row>
@@ -1380,7 +1367,7 @@
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="1">
         <v>1745935.6025279013</v>
       </c>
     </row>
@@ -1391,7 +1378,7 @@
       <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="1">
         <v>1690254.8786825885</v>
       </c>
     </row>
@@ -1402,7 +1389,7 @@
       <c r="B73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="1">
         <v>1750546.257889735</v>
       </c>
     </row>
@@ -1413,7 +1400,7 @@
       <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="1">
         <v>1678869.3486476021</v>
       </c>
     </row>
@@ -1424,7 +1411,7 @@
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="1">
         <v>1516199.7737187506</v>
       </c>
     </row>
@@ -1435,7 +1422,7 @@
       <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="1">
         <v>1679060.9450681908</v>
       </c>
     </row>
@@ -1446,7 +1433,7 @@
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="1">
         <v>1624910.905954611</v>
       </c>
     </row>
@@ -1457,7 +1444,7 @@
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="1">
         <v>1677187.8748865945</v>
       </c>
     </row>
@@ -1468,7 +1455,7 @@
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="1">
         <v>1626260.4517158414</v>
       </c>
     </row>
@@ -1479,7 +1466,7 @@
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="1">
         <v>1680644.5038354325</v>
       </c>
     </row>
@@ -1490,7 +1477,7 @@
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="1">
         <v>1680095.9761678574</v>
       </c>
     </row>
@@ -1501,7 +1488,7 @@
       <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="1">
         <v>1622586.0905386256</v>
       </c>
     </row>
@@ -1512,7 +1499,7 @@
       <c r="B83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="1">
         <v>1677189.2306823209</v>
       </c>
     </row>
@@ -1523,7 +1510,7 @@
       <c r="B84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="1">
         <v>1623875.7244941068</v>
       </c>
     </row>
@@ -1534,7 +1521,7 @@
       <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="1">
         <v>1679164.8261110436</v>
       </c>
     </row>
@@ -1545,7 +1532,7 @@
       <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="1">
         <v>1741533.84947712</v>
       </c>
     </row>
@@ -1556,7 +1543,7 @@
       <c r="B87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="1">
         <v>1628456.0871051101</v>
       </c>
     </row>
@@ -1567,7 +1554,7 @@
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="1">
         <v>1698810.6832866699</v>
       </c>
     </row>
@@ -1578,7 +1565,7 @@
       <c r="B89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="1">
         <v>1660027.0418432299</v>
       </c>
     </row>
@@ -1589,7 +1576,7 @@
       <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="1">
         <v>1691396.7245273101</v>
       </c>
     </row>
@@ -1600,7 +1587,7 @@
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="1">
         <v>1662568.8391811801</v>
       </c>
     </row>
@@ -1611,7 +1598,7 @@
       <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="1">
         <v>1681326.96768535</v>
       </c>
     </row>
@@ -1622,7 +1609,7 @@
       <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="1">
         <v>1743057.74371472</v>
       </c>
     </row>
@@ -1633,7 +1620,7 @@
       <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="1">
         <v>1682056.2770495701</v>
       </c>
     </row>
@@ -1644,7 +1631,7 @@
       <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="1">
         <v>1743892.38555023</v>
       </c>
     </row>
@@ -1655,7 +1642,7 @@
       <c r="B96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="1">
         <v>1688491.86585897</v>
       </c>
     </row>
@@ -1666,7 +1653,7 @@
       <c r="B97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="1">
         <v>1744709.8975706999</v>
       </c>
     </row>
@@ -1677,7 +1664,7 @@
       <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="1">
         <v>1767608.2200631499</v>
       </c>
     </row>
@@ -1688,7 +1675,7 @@
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="1">
         <v>1654574.57191538</v>
       </c>
     </row>
@@ -1699,7 +1686,7 @@
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="1">
         <v>1766401.2818422101</v>
       </c>
     </row>
@@ -1710,7 +1697,7 @@
       <c r="B101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="1">
         <v>1709038.5125635699</v>
       </c>
     </row>
@@ -1721,7 +1708,7 @@
       <c r="B102" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="1">
         <v>1766456.0338797399</v>
       </c>
     </row>
@@ -1732,7 +1719,7 @@
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="1">
         <v>1709465.3751914301</v>
       </c>
     </row>
@@ -1743,7 +1730,7 @@
       <c r="B104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="1">
         <v>1766994.25895857</v>
       </c>
     </row>
@@ -1754,7 +1741,7 @@
       <c r="B105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="1">
         <v>1766705.0242616499</v>
       </c>
     </row>
@@ -1765,7 +1752,7 @@
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="1">
         <v>1710462.9799971201</v>
       </c>
     </row>
@@ -1776,7 +1763,7 @@
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="1">
         <v>1766048.4586040301</v>
       </c>
     </row>
@@ -1787,7 +1774,7 @@
       <c r="B108" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="1">
         <v>1715312.08390282</v>
       </c>
     </row>
@@ -1798,40 +1785,40 @@
       <c r="B109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="1">
         <v>1769683.7599319301</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="1">
         <v>1802585.95676159</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="1">
         <v>1688011.6838960401</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="1">
         <v>1806615.57029299</v>
       </c>
     </row>
@@ -1842,7 +1829,7 @@
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="1">
         <v>1748934.97462599</v>
       </c>
     </row>
@@ -1853,7 +1840,7 @@
       <c r="B114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="1">
         <v>1806540.7821345199</v>
       </c>
     </row>
@@ -1864,7 +1851,7 @@
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="1">
         <v>1746232.06852561</v>
       </c>
     </row>
@@ -1875,7 +1862,7 @@
       <c r="B116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="1">
         <v>1804553.69378692</v>
       </c>
     </row>
@@ -1886,7 +1873,7 @@
       <c r="B117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="1">
         <v>1806468.9133548699</v>
       </c>
     </row>
@@ -1897,7 +1884,7 @@
       <c r="B118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="1">
         <v>1747488.82418931</v>
       </c>
     </row>
@@ -1908,7 +1895,7 @@
       <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="1">
         <v>1804690.24385538</v>
       </c>
     </row>
@@ -1919,7 +1906,7 @@
       <c r="B120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="1">
         <v>1744920.4923086499</v>
       </c>
     </row>
@@ -1930,7 +1917,7 @@
       <c r="B121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="1">
         <v>1807389.31739041</v>
       </c>
     </row>
@@ -1941,7 +1928,7 @@
       <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="1">
         <v>1846746.91369413</v>
       </c>
     </row>
@@ -1952,7 +1939,7 @@
       <c r="B123" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="1">
         <v>1725984.0566348401</v>
       </c>
     </row>
@@ -1963,7 +1950,7 @@
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="1">
         <v>1844882.34477651</v>
       </c>
     </row>
@@ -1974,7 +1961,7 @@
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="1">
         <v>1787115.1558615</v>
       </c>
     </row>
@@ -1985,7 +1972,7 @@
       <c r="B126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="1">
         <v>1844377.12745792</v>
       </c>
     </row>
@@ -1996,7 +1983,7 @@
       <c r="B127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="1">
         <v>1782519.1675589799</v>
       </c>
     </row>
@@ -2007,7 +1994,7 @@
       <c r="B128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="1">
         <v>1842100.83649306</v>
       </c>
     </row>
@@ -2018,7 +2005,7 @@
       <c r="B129" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="1">
         <v>1841735.73705709</v>
       </c>
     </row>
@@ -2029,7 +2016,7 @@
       <c r="B130" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="1">
         <v>1782416.7140149199</v>
       </c>
     </row>
@@ -2040,7 +2027,7 @@
       <c r="B131" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="1">
         <v>1844512.83379231</v>
       </c>
     </row>
@@ -2051,7 +2038,7 @@
       <c r="B132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="1">
         <v>1784951.1240614599</v>
       </c>
     </row>
@@ -2062,19 +2049,19 @@
       <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="1">
         <v>1844471.1493311699</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="6"/>
+      <c r="D145" s="1"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="6"/>
+      <c r="D146" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,13 +2079,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2109,7 +2096,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>558501.46629658737</v>
       </c>
     </row>
@@ -2120,7 +2107,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>596132.25492841238</v>
       </c>
     </row>
@@ -2131,7 +2118,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>684658.94269560161</v>
       </c>
     </row>
@@ -2142,7 +2129,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>572685.42979119183</v>
       </c>
     </row>
@@ -2153,7 +2140,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>583888.88863364537</v>
       </c>
     </row>
@@ -2164,7 +2151,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>511162.61937067483</v>
       </c>
     </row>
@@ -2175,7 +2162,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>772231.4792233638</v>
       </c>
     </row>
@@ -2186,7 +2173,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>648422.76398693188</v>
       </c>
     </row>
@@ -2197,7 +2184,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
         <v>488937.65333760285</v>
       </c>
     </row>
@@ -2208,7 +2195,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <v>538836.51499942178</v>
       </c>
     </row>
@@ -2219,7 +2206,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>630282.65350437153</v>
       </c>
     </row>
@@ -2230,7 +2217,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>652890.63092993759</v>
       </c>
     </row>
@@ -2241,7 +2228,7 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
         <v>695064.67884257692</v>
       </c>
     </row>
@@ -2252,7 +2239,7 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="1">
         <v>791829.64808520162</v>
       </c>
     </row>
@@ -2263,7 +2250,7 @@
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="1">
         <v>850424.64452523645</v>
       </c>
     </row>
@@ -2274,7 +2261,7 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>781771.81837369315</v>
       </c>
     </row>
@@ -2285,7 +2272,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="1">
         <v>734451.18256385764</v>
       </c>
     </row>
@@ -2296,7 +2283,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="1">
         <v>721822.54172279919</v>
       </c>
     </row>
@@ -2307,7 +2294,7 @@
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
         <v>872203.68478794838</v>
       </c>
     </row>
@@ -2318,7 +2305,7 @@
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>788810.4095267721</v>
       </c>
     </row>
@@ -2329,7 +2316,7 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="1">
         <v>602561.68620262737</v>
       </c>
     </row>
@@ -2340,7 +2327,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="1">
         <v>721734.97665678605</v>
       </c>
     </row>
@@ -2351,7 +2338,7 @@
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="1">
         <v>752509.24981293757</v>
       </c>
     </row>
@@ -2362,7 +2349,7 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="1">
         <v>790858.2852699185</v>
       </c>
     </row>
@@ -2373,7 +2360,7 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="1">
         <v>698025.37285474082</v>
       </c>
     </row>
@@ -2384,7 +2371,7 @@
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="1">
         <v>710540.70398049592</v>
       </c>
     </row>
@@ -2395,7 +2382,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="1">
         <v>758449.62965211621</v>
       </c>
     </row>
@@ -2406,7 +2393,7 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="1">
         <v>699486.91134979716</v>
       </c>
     </row>
@@ -2417,7 +2404,7 @@
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="1">
         <v>648789.7739478501</v>
       </c>
     </row>
@@ -2428,7 +2415,7 @@
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="1">
         <v>643718.57031085098</v>
       </c>
     </row>
@@ -2439,7 +2426,7 @@
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="1">
         <v>816523.98569037684</v>
       </c>
     </row>
@@ -2450,7 +2437,7 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="1">
         <v>728897.02195027028</v>
       </c>
     </row>
@@ -2461,7 +2448,7 @@
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="1">
         <v>546563.37446104782</v>
       </c>
     </row>
@@ -2472,7 +2459,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="1">
         <v>627126.70237284538</v>
       </c>
     </row>
@@ -2483,7 +2470,7 @@
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="1">
         <v>752191.38247228414</v>
       </c>
     </row>
@@ -2494,7 +2481,7 @@
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="1">
         <v>729489.22492194921</v>
       </c>
     </row>
@@ -2505,7 +2492,7 @@
       <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="1">
         <v>752191.38247228414</v>
       </c>
     </row>
@@ -2516,7 +2503,7 @@
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="1">
         <v>729489.22492194921</v>
       </c>
     </row>
@@ -2527,7 +2514,7 @@
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="1">
         <v>862553.23013110599</v>
       </c>
     </row>
@@ -2538,7 +2525,7 @@
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="1">
         <v>861833.27386147319</v>
       </c>
     </row>
@@ -2549,7 +2536,7 @@
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="1">
         <v>991972.01300967159</v>
       </c>
     </row>
@@ -2560,7 +2547,7 @@
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="1">
         <v>830739.95459197799</v>
       </c>
     </row>
@@ -2571,7 +2558,7 @@
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="1">
         <v>787945.17432030023</v>
       </c>
     </row>
@@ -2582,7 +2569,7 @@
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="1">
         <v>743148.24055228382</v>
       </c>
     </row>
@@ -2593,7 +2580,7 @@
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="1">
         <v>1027946.9305152582</v>
       </c>
     </row>
@@ -2604,7 +2591,7 @@
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="1">
         <v>923692.25591214863</v>
       </c>
     </row>
@@ -2615,7 +2602,7 @@
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="1">
         <v>777345.43732223054</v>
       </c>
     </row>
@@ -2626,7 +2613,7 @@
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="1">
         <v>837155.45808435814</v>
       </c>
     </row>
@@ -2637,7 +2624,7 @@
       <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="1">
         <v>911967.49126378994</v>
       </c>
     </row>
@@ -2648,7 +2635,7 @@
       <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="1">
         <v>940568.66896653618</v>
       </c>
     </row>
@@ -2659,7 +2646,7 @@
       <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="1">
         <v>967975.03989266651</v>
       </c>
     </row>
@@ -2670,7 +2657,7 @@
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="1">
         <v>957507.36248288676</v>
       </c>
     </row>
@@ -2681,7 +2668,7 @@
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="1">
         <v>1016986.255741018</v>
       </c>
     </row>
@@ -2692,7 +2679,7 @@
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="1">
         <v>993758.39781701833</v>
       </c>
     </row>
@@ -2703,7 +2690,7 @@
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="1">
         <v>935785.74940047879</v>
       </c>
     </row>
@@ -2714,7 +2701,7 @@
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="1">
         <v>967735.99043717177</v>
       </c>
     </row>
@@ -2725,7 +2712,7 @@
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="1">
         <v>1131391.0422829955</v>
       </c>
     </row>
@@ -2736,7 +2723,7 @@
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="1">
         <v>1020778.7511578243</v>
       </c>
     </row>
@@ -2747,7 +2734,7 @@
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="1">
         <v>814832.51204882911</v>
       </c>
     </row>
@@ -2758,7 +2745,7 @@
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="1">
         <v>939416.47792871541</v>
       </c>
     </row>
@@ -2769,7 +2756,7 @@
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="1">
         <v>1041939.4761060446</v>
       </c>
     </row>
@@ -2780,7 +2767,7 @@
       <c r="B63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="1">
         <v>1013600.0780341318</v>
       </c>
     </row>
@@ -2791,7 +2778,7 @@
       <c r="B64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="1">
         <v>1018181.0525010771</v>
       </c>
     </row>
@@ -2802,7 +2789,7 @@
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="1">
         <v>1018117.8978110859</v>
       </c>
     </row>
@@ -2813,7 +2800,7 @@
       <c r="B66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="1">
         <v>1134995.7855897751</v>
       </c>
     </row>
@@ -2824,7 +2811,7 @@
       <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="1">
         <v>964513.50368959701</v>
       </c>
     </row>
@@ -2835,7 +2822,7 @@
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="1">
         <v>898260.91214703384</v>
       </c>
     </row>
@@ -2846,7 +2833,7 @@
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="1">
         <v>894673.87871937</v>
       </c>
     </row>
@@ -2857,7 +2844,7 @@
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="1">
         <v>1138107.6857057658</v>
       </c>
     </row>
@@ -2868,7 +2855,7 @@
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="1">
         <v>980909.68856209959</v>
       </c>
     </row>
@@ -2879,7 +2866,7 @@
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="1">
         <v>809929.12549889518</v>
       </c>
     </row>
@@ -2890,7 +2877,7 @@
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="1">
         <v>954671.64316085062</v>
       </c>
     </row>
@@ -2901,7 +2888,7 @@
       <c r="B74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="1">
         <v>1023909.7968041265</v>
       </c>
     </row>
@@ -2912,7 +2899,7 @@
       <c r="B75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="1">
         <v>981717.92130975239</v>
       </c>
     </row>
@@ -2923,7 +2910,7 @@
       <c r="B76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="1">
         <v>900974.06583691633</v>
       </c>
     </row>
@@ -2934,7 +2921,7 @@
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="1">
         <v>909577.25458730571</v>
       </c>
     </row>
@@ -2945,7 +2932,7 @@
       <c r="B78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="1">
         <v>993920.85305152833</v>
       </c>
     </row>
@@ -2956,7 +2943,7 @@
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="1">
         <v>924388.82764075848</v>
       </c>
     </row>
@@ -2967,7 +2954,7 @@
       <c r="B80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="1">
         <v>904467.16243415815</v>
       </c>
     </row>
@@ -2978,7 +2965,7 @@
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="1">
         <v>852684.71424914652</v>
       </c>
     </row>
@@ -2989,7 +2976,7 @@
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="1">
         <v>1063741.1063849702</v>
       </c>
     </row>
@@ -3000,7 +2987,7 @@
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="1">
         <v>929198.11478083523</v>
       </c>
     </row>
@@ -3011,7 +2998,7 @@
       <c r="B84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="1">
         <v>764985.52419328829</v>
       </c>
     </row>
@@ -3022,7 +3009,7 @@
       <c r="B85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="1">
         <v>859849.00380939397</v>
       </c>
     </row>
@@ -3033,7 +3020,7 @@
       <c r="B86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="1">
         <v>988140.53419528785</v>
       </c>
     </row>
@@ -3044,7 +3031,7 @@
       <c r="B87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="1">
         <v>936306.9614029529</v>
       </c>
     </row>
@@ -3055,7 +3042,7 @@
       <c r="B88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="1">
         <v>922316.60311652103</v>
       </c>
     </row>
@@ -3066,7 +3053,7 @@
       <c r="B89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="1">
         <v>966757.53120744007</v>
       </c>
     </row>
@@ -3077,7 +3064,7 @@
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="1">
         <v>683605.51835390797</v>
       </c>
     </row>
@@ -3088,7 +3075,7 @@
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="1">
         <v>70884.023056138147</v>
       </c>
     </row>
@@ -3099,7 +3086,7 @@
       <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="1">
         <v>85097.20116400237</v>
       </c>
     </row>
@@ -3110,7 +3097,7 @@
       <c r="B93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="1">
         <v>149761.71148278471</v>
       </c>
     </row>
@@ -3121,7 +3108,7 @@
       <c r="B94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="1">
         <v>310873.87217549299</v>
       </c>
     </row>
@@ -3132,7 +3119,7 @@
       <c r="B95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="1">
         <v>336710.78616527171</v>
       </c>
     </row>
@@ -3143,7 +3130,7 @@
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="1">
         <v>386650.97081612679</v>
       </c>
     </row>
@@ -3154,7 +3141,7 @@
       <c r="B97" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="1">
         <v>509163.82833083102</v>
       </c>
     </row>
@@ -3165,7 +3152,7 @@
       <c r="B98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="1">
         <v>557735.15867921594</v>
       </c>
     </row>
@@ -3176,7 +3163,7 @@
       <c r="B99" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="1">
         <v>555412.77322621399</v>
       </c>
     </row>
@@ -3187,7 +3174,7 @@
       <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="1">
         <v>434229.63200545497</v>
       </c>
     </row>
@@ -3198,7 +3185,7 @@
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="1">
         <v>413170.73202032596</v>
       </c>
     </row>
@@ -3209,7 +3196,7 @@
       <c r="B102" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="1">
         <v>609999.959804427</v>
       </c>
     </row>
@@ -3220,7 +3207,7 @@
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="1">
         <v>667841.54850190703</v>
       </c>
     </row>
@@ -3231,7 +3218,7 @@
       <c r="B104" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="1">
         <v>699741.60123032797</v>
       </c>
     </row>
@@ -3242,7 +3229,7 @@
       <c r="B105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="1">
         <v>762729.14536602702</v>
       </c>
     </row>
@@ -3253,7 +3240,7 @@
       <c r="B106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="1">
         <v>919776.42425729893</v>
       </c>
     </row>
@@ -3264,7 +3251,7 @@
       <c r="B107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="1">
         <v>732315.48671322805</v>
       </c>
     </row>
@@ -3275,7 +3262,7 @@
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="1">
         <v>665054.16468015697</v>
       </c>
     </row>
@@ -3286,7 +3273,7 @@
       <c r="B109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="1">
         <v>844691.27335497504</v>
       </c>
     </row>
@@ -3297,7 +3284,7 @@
       <c r="B110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="1">
         <v>946027.8382552159</v>
       </c>
     </row>
@@ -3308,7 +3295,7 @@
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="1">
         <v>956378.34633796697</v>
       </c>
     </row>
@@ -3319,7 +3306,7 @@
       <c r="B112" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="1">
         <v>790148.81894816703</v>
       </c>
     </row>
@@ -3330,7 +3317,7 @@
       <c r="B113" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="1">
         <v>857200.39320762106</v>
       </c>
     </row>
@@ -3341,7 +3328,7 @@
       <c r="B114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="1">
         <v>986189.33535100706</v>
       </c>
     </row>
@@ -3352,7 +3339,7 @@
       <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="1">
         <v>980953.69865999103</v>
       </c>
     </row>
@@ -3363,7 +3350,7 @@
       <c r="B116" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="1">
         <v>1006754.46605832</v>
       </c>
     </row>
@@ -3374,7 +3361,7 @@
       <c r="B117" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="1">
         <v>920797.51713030797</v>
       </c>
     </row>
@@ -3385,7 +3372,7 @@
       <c r="B118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="1">
         <v>1058247.3557296619</v>
       </c>
     </row>
@@ -3396,7 +3383,7 @@
       <c r="B119" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="1">
         <v>972238.15953580302</v>
       </c>
     </row>
@@ -3407,7 +3394,7 @@
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="1">
         <v>850542.31615557498</v>
       </c>
     </row>
@@ -3418,7 +3405,7 @@
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="1">
         <v>959513.23465001199</v>
       </c>
     </row>
@@ -3429,7 +3416,7 @@
       <c r="B122" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="1">
         <v>1035841.51945938</v>
       </c>
     </row>
@@ -3440,7 +3427,7 @@
       <c r="B123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="1">
         <v>1000016.152341068</v>
       </c>
     </row>
@@ -3451,7 +3438,7 @@
       <c r="B124" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="1">
         <v>989913.13570989296</v>
       </c>
     </row>
@@ -3462,7 +3449,7 @@
       <c r="B125" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="1">
         <v>1087855.472482173</v>
       </c>
     </row>
@@ -3473,7 +3460,7 @@
       <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="1">
         <v>1175528.9918053909</v>
       </c>
     </row>
@@ -3484,7 +3471,7 @@
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="1">
         <v>1073598.87151439</v>
       </c>
     </row>
@@ -3495,7 +3482,7 @@
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="1">
         <v>1023887.258881489</v>
       </c>
     </row>
@@ -3506,7 +3493,7 @@
       <c r="B129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="1">
         <v>1012576.221028249</v>
       </c>
     </row>
@@ -3517,7 +3504,7 @@
       <c r="B130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="1">
         <v>1078019.8908190471</v>
       </c>
     </row>
@@ -3528,7 +3515,7 @@
       <c r="B131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="1">
         <v>1019000.9449319211</v>
       </c>
     </row>
@@ -3539,7 +3526,7 @@
       <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="1">
         <v>897564.21998285095</v>
       </c>
     </row>
@@ -3550,7 +3537,7 @@
       <c r="B133" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="1">
         <v>986253.48775714799</v>
       </c>
     </row>
@@ -3561,7 +3548,7 @@
       <c r="B134" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="1">
         <v>1138044.733905782</v>
       </c>
     </row>
@@ -3572,14 +3559,14 @@
       <c r="B135" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="1">
         <v>1040946.5326212379</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3614,7 +3601,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>483938.48196182208</v>
       </c>
     </row>
@@ -3625,7 +3612,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>499143.30115803762</v>
       </c>
     </row>
@@ -3636,7 +3623,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>660681.6262375107</v>
       </c>
     </row>
@@ -3647,7 +3634,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>547799.08342615562</v>
       </c>
     </row>
@@ -3658,7 +3645,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>576492.62589474535</v>
       </c>
     </row>
@@ -3669,7 +3656,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>504037.29922205751</v>
       </c>
     </row>
@@ -3680,7 +3667,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>791459.41067877191</v>
       </c>
     </row>
@@ -3691,7 +3678,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>682064.0038235517</v>
       </c>
     </row>
@@ -3702,7 +3689,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
         <v>472216.14267280046</v>
       </c>
     </row>
@@ -3713,7 +3700,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <v>533720.20851040725</v>
       </c>
     </row>
@@ -3724,7 +3711,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>606604.07255408284</v>
       </c>
     </row>
@@ -3735,7 +3722,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>671635.6419564439</v>
       </c>
     </row>
@@ -3746,7 +3733,7 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
         <v>519904.25927973603</v>
       </c>
     </row>
@@ -3757,7 +3744,7 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="1">
         <v>566455.28838842211</v>
       </c>
     </row>
@@ -3768,7 +3755,7 @@
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="1">
         <v>610359.21992740338</v>
       </c>
     </row>
@@ -3779,7 +3766,7 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>646864.10910472914</v>
       </c>
     </row>
@@ -3790,7 +3777,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="1">
         <v>560612.04486435046</v>
       </c>
     </row>
@@ -3801,7 +3788,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="1">
         <v>531526.52172634378</v>
       </c>
     </row>
@@ -3812,7 +3799,7 @@
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
         <v>767611.41862031328</v>
       </c>
     </row>
@@ -3823,7 +3810,7 @@
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>667586.54363051686</v>
       </c>
     </row>
@@ -3834,7 +3821,7 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="1">
         <v>498392.64739240415</v>
       </c>
     </row>
@@ -3845,7 +3832,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="1">
         <v>597164.18847640522</v>
       </c>
     </row>
@@ -3856,7 +3843,7 @@
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="1">
         <v>624658.33340739622</v>
       </c>
     </row>
@@ -3867,7 +3854,7 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="1">
         <v>644390.42518197978</v>
       </c>
     </row>
@@ -3878,7 +3865,7 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="1">
         <v>618530.51981859375</v>
       </c>
     </row>
@@ -3889,7 +3876,7 @@
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="1">
         <v>580974.80331664556</v>
       </c>
     </row>
@@ -3900,7 +3887,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="1">
         <v>682950.02398846694</v>
       </c>
     </row>
@@ -3911,7 +3898,7 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="1">
         <v>675014.53323450708</v>
       </c>
     </row>
@@ -3922,7 +3909,7 @@
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="1">
         <v>621266.98132471251</v>
       </c>
     </row>
@@ -3933,7 +3920,7 @@
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="1">
         <v>581013.05710186064</v>
       </c>
     </row>
@@ -3944,7 +3931,7 @@
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="1">
         <v>854674.21229531453</v>
       </c>
     </row>
@@ -3955,7 +3942,7 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="1">
         <v>753870.95691885101</v>
       </c>
     </row>
@@ -3966,7 +3953,7 @@
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="1">
         <v>513834.70030123845</v>
       </c>
     </row>
@@ -3977,7 +3964,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="1">
         <v>594999.63925452635</v>
       </c>
     </row>
@@ -3988,7 +3975,7 @@
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="1">
         <v>673263.27339925792</v>
       </c>
     </row>
@@ -3999,7 +3986,7 @@
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="1">
         <v>676106.38804639655</v>
       </c>
     </row>
@@ -4010,7 +3997,7 @@
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="1">
         <v>599315.58482666605</v>
       </c>
     </row>
@@ -4021,7 +4008,7 @@
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="1">
         <v>575971.20868144906</v>
       </c>
     </row>
@@ -4032,7 +4019,7 @@
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="1">
         <v>772578.60637686891</v>
       </c>
     </row>
@@ -4043,7 +4030,7 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="1">
         <v>610575.95357519423</v>
       </c>
     </row>
@@ -4054,7 +4041,7 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="1">
         <v>618532.83885166189</v>
       </c>
     </row>
@@ -4065,7 +4052,7 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="1">
         <v>579923.04042256542</v>
       </c>
     </row>
@@ -4076,7 +4063,7 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="1">
         <v>880831.76746846479</v>
       </c>
     </row>
@@ -4087,7 +4074,7 @@
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="1">
         <v>807188.84032543073</v>
       </c>
     </row>
@@ -4098,7 +4085,7 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="1">
         <v>625106.51264888234</v>
       </c>
     </row>
@@ -4109,7 +4096,7 @@
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="1">
         <v>672783.73356282292</v>
       </c>
     </row>
@@ -4120,7 +4107,7 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="1">
         <v>718928.1620269639</v>
       </c>
     </row>
@@ -4131,7 +4118,7 @@
       <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="1">
         <v>817379.20091655268</v>
       </c>
     </row>
@@ -4142,7 +4129,7 @@
       <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="1">
         <v>625964.78091920924</v>
       </c>
     </row>
@@ -4153,7 +4140,7 @@
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="1">
         <v>615733.78539516847</v>
       </c>
     </row>
@@ -4164,7 +4151,7 @@
       <c r="B52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="1">
         <v>685575.97846855933</v>
       </c>
     </row>
@@ -4175,7 +4162,7 @@
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="1">
         <v>762863.71630675055</v>
       </c>
     </row>
@@ -4186,7 +4173,7 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="1">
         <v>681143.25046327675</v>
       </c>
     </row>
@@ -4197,7 +4184,7 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="1">
         <v>697904.94602280029</v>
       </c>
     </row>
@@ -4208,7 +4195,7 @@
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="1">
         <v>900770.12283307477</v>
       </c>
     </row>
@@ -4219,7 +4206,7 @@
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="1">
         <v>845880.91100753937</v>
       </c>
     </row>
@@ -4230,7 +4217,7 @@
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="1">
         <v>629357.42510390934</v>
       </c>
     </row>
@@ -4241,7 +4228,7 @@
       <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="1">
         <v>719569.43651181913</v>
       </c>
     </row>
@@ -4252,7 +4239,7 @@
       <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="1">
         <v>756601.50953849277</v>
       </c>
     </row>
@@ -4263,7 +4250,7 @@
       <c r="B61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="1">
         <v>836113.17491195002</v>
       </c>
     </row>
@@ -4274,7 +4261,7 @@
       <c r="B62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="1">
         <v>697706.76014368073</v>
       </c>
     </row>
@@ -4285,7 +4272,7 @@
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="1">
         <v>667676.27553862729</v>
       </c>
     </row>
@@ -4296,7 +4283,7 @@
       <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="1">
         <v>846885.59903976216</v>
       </c>
     </row>
@@ -4307,7 +4294,7 @@
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="1">
         <v>706467.3026886757</v>
       </c>
     </row>
@@ -4318,7 +4305,7 @@
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="1">
         <v>673376.03217604791</v>
       </c>
     </row>
@@ -4329,7 +4316,7 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="1">
         <v>643879.71864763182</v>
       </c>
     </row>
@@ -4340,7 +4327,7 @@
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="1">
         <v>928494.67761811928</v>
       </c>
     </row>
@@ -4351,7 +4338,7 @@
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="1">
         <v>829982.0690600134</v>
       </c>
     </row>
@@ -4362,7 +4349,7 @@
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="1">
         <v>633443.42849781178</v>
       </c>
     </row>
@@ -4373,7 +4360,7 @@
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="1">
         <v>769825.20019430039</v>
       </c>
     </row>
@@ -4384,7 +4371,7 @@
       <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="1">
         <v>806417.76242016011</v>
       </c>
     </row>
@@ -4395,7 +4382,7 @@
       <c r="B73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="1">
         <v>810863.54892778222</v>
       </c>
     </row>
@@ -4406,7 +4393,7 @@
       <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="1">
         <v>661506.66103591886</v>
       </c>
     </row>
@@ -4417,7 +4404,7 @@
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="1">
         <v>611825.4829816164</v>
       </c>
     </row>
@@ -4428,7 +4415,7 @@
       <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="1">
         <v>743071.62544119125</v>
       </c>
     </row>
@@ -4439,7 +4426,7 @@
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="1">
         <v>807796.23522324464</v>
       </c>
     </row>
@@ -4450,7 +4437,7 @@
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="1">
         <v>775986.12026560982</v>
       </c>
     </row>
@@ -4461,7 +4448,7 @@
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="1">
         <v>704942.90337087517</v>
       </c>
     </row>
@@ -4472,7 +4459,7 @@
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="1">
         <v>1007935.1342125565</v>
       </c>
     </row>
@@ -4483,7 +4470,7 @@
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="1">
         <v>925459.44731779699</v>
       </c>
     </row>
@@ -4494,7 +4481,7 @@
       <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="1">
         <v>680657.20076317608</v>
       </c>
     </row>
@@ -4505,7 +4492,7 @@
       <c r="B83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="1">
         <v>791638.65129602887</v>
       </c>
     </row>
@@ -4516,7 +4503,7 @@
       <c r="B84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="1">
         <v>907205.30141818081</v>
       </c>
     </row>
@@ -4527,7 +4514,7 @@
       <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="1">
         <v>881198.52013312315</v>
       </c>
     </row>
@@ -4538,7 +4525,7 @@
       <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="1">
         <v>717024.40186786104</v>
       </c>
     </row>
@@ -4549,7 +4536,7 @@
       <c r="B87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="1">
         <v>729228.68434102205</v>
       </c>
     </row>
@@ -4560,7 +4547,7 @@
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="1">
         <v>549289.19871349097</v>
       </c>
     </row>
@@ -4571,7 +4558,7 @@
       <c r="B89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="1">
         <v>78808.823334083107</v>
       </c>
     </row>
@@ -4582,7 +4569,7 @@
       <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="1">
         <v>97132.158022432472</v>
       </c>
     </row>
@@ -4593,7 +4580,7 @@
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="1">
         <v>142265.12314252814</v>
       </c>
     </row>
@@ -4604,7 +4591,7 @@
       <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="1">
         <v>246026.86017142161</v>
       </c>
     </row>
@@ -4615,7 +4602,7 @@
       <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="1">
         <v>286995.86035746109</v>
       </c>
     </row>
@@ -4626,7 +4613,7 @@
       <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="1">
         <v>315199.48398038297</v>
       </c>
     </row>
@@ -4637,7 +4624,7 @@
       <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="1">
         <v>418735.45885890606</v>
       </c>
     </row>
@@ -4648,7 +4635,7 @@
       <c r="B96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="1">
         <v>429616.85047284991</v>
       </c>
     </row>
@@ -4659,7 +4646,7 @@
       <c r="B97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="1">
         <v>464143.95223700296</v>
       </c>
     </row>
@@ -4670,7 +4657,7 @@
       <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="1">
         <v>336371.48933137988</v>
       </c>
     </row>
@@ -4681,7 +4668,7 @@
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="1">
         <v>308031.77151613199</v>
       </c>
     </row>
@@ -4692,7 +4679,7 @@
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="1">
         <v>515121.80026895611</v>
       </c>
     </row>
@@ -4703,7 +4690,7 @@
       <c r="B101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="1">
         <v>606348.70501865272</v>
       </c>
     </row>
@@ -4714,7 +4701,7 @@
       <c r="B102" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="1">
         <v>639701.77486435883</v>
       </c>
     </row>
@@ -4725,7 +4712,7 @@
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="1">
         <v>655446.04406903475</v>
       </c>
     </row>
@@ -4736,7 +4723,7 @@
       <c r="B104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="1">
         <v>808743.97412677598</v>
       </c>
     </row>
@@ -4747,7 +4734,7 @@
       <c r="B105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="1">
         <v>667544.63338898553</v>
       </c>
     </row>
@@ -4758,7 +4745,7 @@
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="1">
         <v>606823.08860149398</v>
       </c>
     </row>
@@ -4769,7 +4756,7 @@
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="1">
         <v>768985.454288268</v>
       </c>
     </row>
@@ -4780,7 +4767,7 @@
       <c r="B108" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="1">
         <v>810175.97542749206</v>
       </c>
     </row>
@@ -4791,7 +4778,7 @@
       <c r="B109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="1">
         <v>889327.41328943498</v>
       </c>
     </row>
@@ -4802,7 +4789,7 @@
       <c r="B110" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="1">
         <v>697614.17381111509</v>
       </c>
     </row>
@@ -4813,7 +4800,7 @@
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="1">
         <v>690581.98819386901</v>
       </c>
     </row>
@@ -4824,7 +4811,7 @@
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="1">
         <v>790482.196107244</v>
       </c>
     </row>
@@ -4835,7 +4822,7 @@
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="1">
         <v>896093.06700066302</v>
       </c>
     </row>
@@ -4846,7 +4833,7 @@
       <c r="B114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="1">
         <v>898278.77907435596</v>
       </c>
     </row>
@@ -4857,7 +4844,7 @@
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="1">
         <v>831541.37323093601</v>
       </c>
     </row>
@@ -4868,7 +4855,7 @@
       <c r="B116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="1">
         <v>994462.10601973301</v>
       </c>
     </row>
@@ -4879,7 +4866,7 @@
       <c r="B117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="1">
         <v>907203.893511854</v>
       </c>
     </row>
@@ -4890,7 +4877,7 @@
       <c r="B118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="1">
         <v>760072.03760682303</v>
       </c>
     </row>
@@ -4901,7 +4888,7 @@
       <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="1">
         <v>849280.99597361602</v>
       </c>
     </row>
@@ -4912,7 +4899,7 @@
       <c r="B120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="1">
         <v>914148.78510397498</v>
       </c>
     </row>
@@ -4923,7 +4910,7 @@
       <c r="B121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="1">
         <v>915243.40958851902</v>
       </c>
     </row>
@@ -4934,7 +4921,7 @@
       <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="1">
         <v>779156.74355878704</v>
       </c>
     </row>
@@ -4945,7 +4932,7 @@
       <c r="B123" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="1">
         <v>826743.1081267281</v>
       </c>
     </row>
@@ -4956,7 +4943,7 @@
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="1">
         <v>961406.38546806201</v>
       </c>
     </row>
@@ -4967,7 +4954,7 @@
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="1">
         <v>997331.35908581899</v>
       </c>
     </row>
@@ -4978,7 +4965,7 @@
       <c r="B126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="1">
         <v>945250.08045426803</v>
       </c>
     </row>
@@ -4989,7 +4976,7 @@
       <c r="B127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="1">
         <v>904701.36262763711</v>
       </c>
     </row>
@@ -5000,7 +4987,7 @@
       <c r="B128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="1">
         <v>992725.37046740204</v>
       </c>
     </row>
@@ -5011,7 +4998,7 @@
       <c r="B129" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="1">
         <v>950528.29212584998</v>
       </c>
     </row>
@@ -5022,7 +5009,7 @@
       <c r="B130" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="1">
         <v>818406.34531308699</v>
       </c>
     </row>
@@ -5033,7 +5020,7 @@
       <c r="B131" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="1">
         <v>861646.10610649048</v>
       </c>
     </row>
@@ -5044,7 +5031,7 @@
       <c r="B132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="1">
         <v>1024303.154638514</v>
       </c>
     </row>
@@ -5055,7 +5042,7 @@
       <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="1">
         <v>1006722.262720073</v>
       </c>
     </row>
@@ -5092,7 +5079,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>1088939.1117253993</v>
       </c>
     </row>
@@ -5103,7 +5090,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>1156644.5774493422</v>
       </c>
     </row>
@@ -5114,7 +5101,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>1419540.4339859472</v>
       </c>
     </row>
@@ -5125,7 +5112,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>1154988.9721941133</v>
       </c>
     </row>
@@ -5136,7 +5123,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>1149790.9066861439</v>
       </c>
     </row>
@@ -5147,7 +5134,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>1024688.5634227167</v>
       </c>
     </row>
@@ -5158,7 +5145,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>1727033.9370065455</v>
       </c>
     </row>
@@ -5169,7 +5156,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>1365091.5349412882</v>
       </c>
     </row>
@@ -5180,7 +5167,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
         <v>913267.29199857183</v>
       </c>
     </row>
@@ -5191,7 +5178,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <v>1001736.4108849659</v>
       </c>
     </row>
@@ -5202,7 +5189,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>1210288.8314027002</v>
       </c>
     </row>
@@ -5213,7 +5200,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>1352641.3064656705</v>
       </c>
     </row>
@@ -5224,7 +5211,7 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
         <v>1287640.6320909741</v>
       </c>
     </row>
@@ -5235,7 +5222,7 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="1">
         <v>1354032.505514079</v>
       </c>
     </row>
@@ -5246,7 +5233,7 @@
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="1">
         <v>1483999.9152853065</v>
       </c>
     </row>
@@ -5257,7 +5244,7 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>1720778.8249810492</v>
       </c>
     </row>
@@ -5268,7 +5255,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="1">
         <v>1459072.7725319993</v>
       </c>
     </row>
@@ -5279,7 +5266,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="1">
         <v>1396667.2647126389</v>
       </c>
     </row>
@@ -5290,7 +5277,7 @@
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
         <v>1930936.7881328934</v>
       </c>
     </row>
@@ -5301,7 +5288,7 @@
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>1721489.3366618797</v>
       </c>
     </row>
@@ -5312,7 +5299,7 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="1">
         <v>1198518.0629312498</v>
       </c>
     </row>
@@ -5323,7 +5310,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="1">
         <v>1391946.2494911195</v>
       </c>
     </row>
@@ -5334,7 +5321,7 @@
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="1">
         <v>1664614.1282591519</v>
       </c>
     </row>
@@ -5345,7 +5332,7 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="1">
         <v>1754377.141739334</v>
       </c>
     </row>
@@ -5356,7 +5343,7 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="1">
         <v>1463604.8840132181</v>
       </c>
     </row>
@@ -5367,7 +5354,7 @@
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="1">
         <v>1461019.9561640308</v>
       </c>
     </row>
@@ -5378,7 +5365,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="1">
         <v>1625161.4263727446</v>
       </c>
     </row>
@@ -5389,7 +5376,7 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="1">
         <v>1553986.9562154999</v>
       </c>
     </row>
@@ -5400,7 +5387,7 @@
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="1">
         <v>1355551.131164904</v>
       </c>
     </row>
@@ -5411,7 +5398,7 @@
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="1">
         <v>1308115.9229966267</v>
       </c>
     </row>
@@ -5422,7 +5409,7 @@
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="1">
         <v>1887148.1992631028</v>
       </c>
     </row>
@@ -5433,7 +5420,7 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="1">
         <v>1629474.7848142362</v>
       </c>
     </row>
@@ -5444,7 +5431,7 @@
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="1">
         <v>1072147.5535146804</v>
       </c>
     </row>
@@ -5455,7 +5442,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="1">
         <v>1198575.4549061856</v>
       </c>
     </row>
@@ -5466,7 +5453,7 @@
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="1">
         <v>1487213.0013745795</v>
       </c>
     </row>
@@ -5477,7 +5464,7 @@
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="1">
         <v>1567071.9875494335</v>
       </c>
     </row>
@@ -5488,7 +5475,7 @@
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="1">
         <v>1504608.7004094585</v>
       </c>
     </row>
@@ -5499,7 +5486,7 @@
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="1">
         <v>1426087.9520570789</v>
       </c>
     </row>
@@ -5510,7 +5497,7 @@
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="1">
         <v>1818215.1709352701</v>
       </c>
     </row>
@@ -5521,7 +5508,7 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="1">
         <v>1413008.2809010092</v>
       </c>
     </row>
@@ -5532,7 +5519,7 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="1">
         <v>1364034.5727177558</v>
       </c>
     </row>
@@ -5543,7 +5530,7 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="1">
         <v>1303170.7675247765</v>
       </c>
     </row>
@@ -5554,7 +5541,7 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="1">
         <v>1996845.1412478711</v>
       </c>
     </row>
@@ -5565,7 +5552,7 @@
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="1">
         <v>1732950.1422807341</v>
       </c>
     </row>
@@ -5576,7 +5563,7 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="1">
         <v>1308393.5504054604</v>
       </c>
     </row>
@@ -5587,7 +5574,7 @@
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="1">
         <v>1424784.1317089039</v>
       </c>
     </row>
@@ -5598,7 +5585,7 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="1">
         <v>1582092.0909166548</v>
       </c>
     </row>
@@ -5609,7 +5596,7 @@
       <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="1">
         <v>1739747.8037096984</v>
       </c>
     </row>
@@ -5620,7 +5607,7 @@
       <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="1">
         <v>1517333.8072960726</v>
       </c>
     </row>
@@ -5631,7 +5618,7 @@
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="1">
         <v>1488173.792488649</v>
       </c>
     </row>
@@ -5642,7 +5629,7 @@
       <c r="B52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="1">
         <v>1628680.7449653891</v>
       </c>
     </row>
@@ -5653,7 +5640,7 @@
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="1">
         <v>1754482.5734530459</v>
       </c>
     </row>
@@ -5664,7 +5651,7 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="1">
         <v>1516081.8140442334</v>
       </c>
     </row>
@@ -5675,7 +5662,7 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="1">
         <v>1610500.1527309364</v>
       </c>
     </row>
@@ -5686,7 +5673,7 @@
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="1">
         <v>2068534.258595848</v>
       </c>
     </row>
@@ -5697,7 +5684,7 @@
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="1">
         <v>1789861.337446816</v>
       </c>
     </row>
@@ -5708,7 +5695,7 @@
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="1">
         <v>1268868.7214844909</v>
       </c>
     </row>
@@ -5719,7 +5706,7 @@
       <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="1">
         <v>1448934.153239033</v>
       </c>
     </row>
@@ -5730,7 +5717,7 @@
       <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="1">
         <v>1640994.4029562557</v>
       </c>
     </row>
@@ -5741,7 +5728,7 @@
       <c r="B61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="1">
         <v>1751909.4136855723</v>
       </c>
     </row>
@@ -5752,7 +5739,7 @@
       <c r="B62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="1">
         <v>1653555.5616116265</v>
       </c>
     </row>
@@ -5763,7 +5750,7 @@
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="1">
         <v>1656395.2958881636</v>
       </c>
     </row>
@@ -5774,7 +5761,7 @@
       <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="1">
         <v>1965384.0467169757</v>
       </c>
     </row>
@@ -5785,7 +5772,7 @@
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="1">
         <v>1638921.9734823112</v>
       </c>
     </row>
@@ -5796,7 +5783,7 @@
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="1">
         <v>1469918.0306022356</v>
       </c>
     </row>
@@ -5807,7 +5794,7 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="1">
         <v>1489348.5171104064</v>
       </c>
     </row>
@@ -5818,7 +5805,7 @@
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="1">
         <v>2066010.3143417065</v>
       </c>
     </row>
@@ -5829,7 +5816,7 @@
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="1">
         <v>1756358.5470379021</v>
       </c>
     </row>
@@ -5840,7 +5827,7 @@
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="1">
         <v>1293745.9892799193</v>
       </c>
     </row>
@@ -5851,7 +5838,7 @@
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="1">
         <v>1543010.4209729782</v>
       </c>
     </row>
@@ -5862,7 +5849,7 @@
       <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="1">
         <v>1726418.2182265196</v>
       </c>
     </row>
@@ -5873,7 +5860,7 @@
       <c r="B73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="1">
         <v>1725407.4774062561</v>
       </c>
     </row>
@@ -5884,7 +5871,7 @@
       <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="1">
         <v>1677915.8943871553</v>
       </c>
     </row>
@@ -5895,7 +5882,7 @@
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="1">
         <v>1640163.9890319025</v>
       </c>
     </row>
@@ -5906,7 +5893,7 @@
       <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="1">
         <v>1820496.9929338824</v>
       </c>
     </row>
@@ -5917,7 +5904,7 @@
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="1">
         <v>1844406.3858953151</v>
       </c>
     </row>
@@ -5928,7 +5915,7 @@
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="1">
         <v>1684349.3996692793</v>
       </c>
     </row>
@@ -5939,7 +5926,7 @@
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="1">
         <v>1607580.5084227694</v>
       </c>
     </row>
@@ -5950,7 +5937,7 @@
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="1">
         <v>2235922.8328996613</v>
       </c>
     </row>
@@ -5961,7 +5948,7 @@
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="1">
         <v>1909116.027101252</v>
       </c>
     </row>
@@ -5972,7 +5959,7 @@
       <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="1">
         <v>1399495.0271665826</v>
       </c>
     </row>
@@ -5983,7 +5970,7 @@
       <c r="B83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="1">
         <v>1605107.4535982534</v>
       </c>
     </row>
@@ -5994,7 +5981,7 @@
       <c r="B84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="1">
         <v>1868519.6241761977</v>
       </c>
     </row>
@@ -6005,7 +5992,7 @@
       <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="1">
         <v>1853237.179684602</v>
       </c>
     </row>
@@ -6016,7 +6003,7 @@
       <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="1">
         <v>1695157.7402431211</v>
       </c>
     </row>
@@ -6027,7 +6014,7 @@
       <c r="B87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="1">
         <v>1715054.612155423</v>
       </c>
     </row>
@@ -6038,7 +6025,7 @@
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="1">
         <v>1237372.540942773</v>
       </c>
     </row>
@@ -6049,7 +6036,7 @@
       <c r="B89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="1">
         <v>123547.26284724442</v>
       </c>
     </row>
@@ -6060,7 +6047,7 @@
       <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="1">
         <v>144014.82116872218</v>
       </c>
     </row>
@@ -6071,7 +6058,7 @@
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="1">
         <v>246694.41256954288</v>
       </c>
     </row>
@@ -6082,7 +6069,7 @@
       <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="1">
         <v>563169.41511823446</v>
       </c>
     </row>
@@ -6093,7 +6080,7 @@
       <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="1">
         <v>619570.86564219068</v>
       </c>
     </row>
@@ -6104,7 +6091,7 @@
       <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="1">
         <v>715321.18429655978</v>
       </c>
     </row>
@@ -6115,7 +6102,7 @@
       <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="1">
         <v>923852.41820770409</v>
       </c>
     </row>
@@ -6126,7 +6113,7 @@
       <c r="B96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="1">
         <v>1003323.105572801</v>
       </c>
     </row>
@@ -6137,7 +6124,7 @@
       <c r="B97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="1">
         <v>1049040.8192858291</v>
       </c>
     </row>
@@ -6148,7 +6135,7 @@
       <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="1">
         <v>780673.16158668592</v>
       </c>
     </row>
@@ -6159,7 +6146,7 @@
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="1">
         <v>704855.39608455903</v>
       </c>
     </row>
@@ -6170,7 +6157,7 @@
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="1">
         <v>1121763.1872864051</v>
       </c>
     </row>
@@ -6181,7 +6168,7 @@
       <c r="B101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="1">
         <v>1298823.4929026011</v>
       </c>
     </row>
@@ -6192,7 +6179,7 @@
       <c r="B102" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="1">
         <v>1300113.7945218869</v>
       </c>
     </row>
@@ -6203,7 +6190,7 @@
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="1">
         <v>1410180.9135616161</v>
       </c>
     </row>
@@ -6214,7 +6201,7 @@
       <c r="B104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="1">
         <v>1763064.6911262751</v>
       </c>
     </row>
@@ -6225,7 +6212,7 @@
       <c r="B105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="1">
         <v>1356112.08420519</v>
       </c>
     </row>
@@ -6236,7 +6223,7 @@
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="1">
         <v>1186423.357544624</v>
       </c>
     </row>
@@ -6247,7 +6234,7 @@
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="1">
         <v>1516670.567686253</v>
       </c>
     </row>
@@ -6258,7 +6245,7 @@
       <c r="B108" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="1">
         <v>1688227.026198108</v>
       </c>
     </row>
@@ -6269,7 +6256,7 @@
       <c r="B109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="1">
         <v>1805656.7434416509</v>
       </c>
     </row>
@@ -6280,7 +6267,7 @@
       <c r="B110" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="1">
         <v>1463923.568682225</v>
       </c>
     </row>
@@ -6291,7 +6278,7 @@
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="1">
         <v>1470271.6009526839</v>
       </c>
     </row>
@@ -6302,7 +6289,7 @@
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="1">
         <v>1711698.121431492</v>
       </c>
     </row>
@@ -6313,7 +6300,7 @@
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="1">
         <v>1882530.2135001579</v>
       </c>
     </row>
@@ -6324,7 +6311,7 @@
       <c r="B114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="1">
         <v>1850671.745453893</v>
       </c>
     </row>
@@ -6335,7 +6322,7 @@
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="1">
         <v>1686682.5413505989</v>
       </c>
     </row>
@@ -6346,7 +6333,7 @@
       <c r="B116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="1">
         <v>2086503.6575471621</v>
       </c>
     </row>
@@ -6357,7 +6344,7 @@
       <c r="B117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="1">
         <v>1933221.2936866181</v>
       </c>
     </row>
@@ -6368,7 +6355,7 @@
       <c r="B118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="1">
         <v>1534717.958749034</v>
       </c>
     </row>
@@ -6379,7 +6366,7 @@
       <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="1">
         <v>1753055.5973294592</v>
       </c>
     </row>
@@ -6390,7 +6377,7 @@
       <c r="B120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="1">
         <v>1900560.0845955601</v>
       </c>
     </row>
@@ -6401,7 +6388,7 @@
       <c r="B121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="1">
         <v>1916313.8721826391</v>
       </c>
     </row>
@@ -6412,7 +6399,7 @@
       <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="1">
         <v>1762744.3256992782</v>
       </c>
     </row>
@@ -6423,7 +6410,7 @@
       <c r="B123" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="1">
         <v>1863487.0682018169</v>
       </c>
     </row>
@@ -6434,7 +6421,7 @@
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="1">
         <v>2139999.8337147469</v>
       </c>
     </row>
@@ -6445,7 +6432,7 @@
       <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="1">
         <v>2108569.4868417378</v>
       </c>
     </row>
@@ -6456,7 +6443,7 @@
       <c r="B126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="1">
         <v>1970011.9747406859</v>
       </c>
     </row>
@@ -6467,7 +6454,7 @@
       <c r="B127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="1">
         <v>1942471.9957345701</v>
       </c>
     </row>
@@ -6478,7 +6465,7 @@
       <c r="B128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="1">
         <v>2156143.0680162138</v>
       </c>
     </row>
@@ -6489,7 +6476,7 @@
       <c r="B129" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="1">
         <v>1927227.021093409</v>
       </c>
     </row>
@@ -6500,7 +6487,7 @@
       <c r="B130" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="1">
         <v>1575759.6893437509</v>
       </c>
     </row>
@@ -6511,7 +6498,7 @@
       <c r="B131" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="1">
         <v>1739519.253926252</v>
       </c>
     </row>
@@ -6522,7 +6509,7 @@
       <c r="B132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="1">
         <v>2045519.154443058</v>
       </c>
     </row>
@@ -6533,14 +6520,14 @@
       <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="1">
         <v>2002127.0091471849</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6551,7 +6538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16123480-9E06-4D8C-8B62-3D0018B4EBC2}">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6575,7 +6562,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>0.4314794767296799</v>
       </c>
     </row>
@@ -6586,7 +6573,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>0.50986133342297824</v>
       </c>
     </row>
@@ -6597,7 +6584,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>0.52882088182777554</v>
       </c>
     </row>
@@ -6608,7 +6595,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>0.4581701613067764</v>
       </c>
     </row>
@@ -6619,7 +6606,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.45232089557522909</v>
       </c>
     </row>
@@ -6630,7 +6617,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>0.40926071772982658</v>
       </c>
     </row>
@@ -6641,7 +6628,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.59765072843517797</v>
       </c>
     </row>
@@ -6652,7 +6639,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>0.50125075114076989</v>
       </c>
     </row>
@@ -6663,7 +6650,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>0.39072286723652783</v>
       </c>
     </row>
@@ -6674,7 +6661,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>0.41715589433111783</v>
       </c>
     </row>
@@ -6685,7 +6672,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>0.50213161390225081</v>
       </c>
     </row>
@@ -6696,7 +6683,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>0.5046702587276134</v>
       </c>
     </row>
@@ -6707,7 +6694,7 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>0.47152474684692591</v>
       </c>
     </row>
@@ -6718,7 +6705,7 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>0.55748531192556394</v>
       </c>
     </row>
@@ -6729,7 +6716,7 @@
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>0.56391241393522451</v>
       </c>
     </row>
@@ -6740,7 +6727,7 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>0.51601509098250864</v>
       </c>
     </row>
@@ -6751,7 +6738,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>0.46454888165074454</v>
       </c>
     </row>
@@ -6762,7 +6749,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>0.46969797949346631</v>
       </c>
     </row>
@@ -6773,7 +6760,7 @@
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>0.58486848176771711</v>
       </c>
     </row>
@@ -6784,7 +6771,7 @@
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>0.51368218256719134</v>
       </c>
     </row>
@@ -6795,7 +6782,7 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>0.43167756992598544</v>
       </c>
     </row>
@@ -6806,7 +6793,7 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>0.47099025328044863</v>
       </c>
     </row>
@@ -6817,7 +6804,7 @@
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>0.54210454681099318</v>
       </c>
     </row>
@@ -6828,7 +6815,7 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>0.53736439832416094</v>
       </c>
     </row>
@@ -6839,7 +6826,7 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>0.51307445866263879</v>
       </c>
     </row>
@@ -6850,7 +6837,7 @@
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>0.57330503870268734</v>
       </c>
     </row>
@@ -6861,7 +6848,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>0.55911560425679008</v>
       </c>
     </row>
@@ -6872,7 +6859,7 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>0.53353032236039621</v>
       </c>
     </row>
@@ -6883,7 +6870,7 @@
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>0.47434817727253331</v>
       </c>
     </row>
@@ -6894,7 +6881,7 @@
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>0.48450258891713249</v>
       </c>
     </row>
@@ -6905,7 +6892,7 @@
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>0.59435427389545903</v>
       </c>
     </row>
@@ -6916,7 +6903,7 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>0.53371286198533463</v>
       </c>
     </row>
@@ -6927,7 +6914,7 @@
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>0.41583682258364729</v>
       </c>
     </row>
@@ -6938,7 +6925,7 @@
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>0.45921847294647139</v>
       </c>
     </row>
@@ -6949,7 +6936,7 @@
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>0.56814576340065759</v>
       </c>
     </row>
@@ -6960,7 +6947,7 @@
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>0.53825382487895279</v>
       </c>
     </row>
@@ -6971,7 +6958,7 @@
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>0.53505518006464814</v>
       </c>
     </row>
@@ -6982,7 +6969,7 @@
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>0.5682404586262878</v>
       </c>
     </row>
@@ -6993,7 +6980,7 @@
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>0.61309863269941534</v>
       </c>
     </row>
@@ -7004,7 +6991,7 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>0.53076204985837461</v>
       </c>
     </row>
@@ -7015,7 +7002,7 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>0.48648713643378505</v>
       </c>
     </row>
@@ -7026,7 +7013,7 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="4">
         <v>0.47412235774890454</v>
       </c>
     </row>
@@ -7037,7 +7024,7 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>0.63424994791076073</v>
       </c>
     </row>
@@ -7048,7 +7035,7 @@
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>0.5699707237558258</v>
       </c>
     </row>
@@ -7059,7 +7046,7 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>0.49625938949322684</v>
       </c>
     </row>
@@ -7070,7 +7057,7 @@
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>0.51719442415664696</v>
       </c>
     </row>
@@ -7081,7 +7068,7 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>0.58196773052126971</v>
       </c>
     </row>
@@ -7092,7 +7079,7 @@
       <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>0.5797373350706948</v>
       </c>
     </row>
@@ -7103,7 +7090,7 @@
       <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="4">
         <v>0.55168675206299378</v>
       </c>
     </row>
@@ -7114,7 +7101,7 @@
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="4">
         <v>0.60350779659887832</v>
       </c>
     </row>
@@ -7125,7 +7112,7 @@
       <c r="B52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="4">
         <v>0.57927848235610058</v>
       </c>
     </row>
@@ -7136,7 +7123,7 @@
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>0.58498982389958765</v>
       </c>
     </row>
@@ -7147,7 +7134,7 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>0.53511274913721329</v>
       </c>
     </row>
@@ -7158,7 +7145,7 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <v>0.57067436214245226</v>
       </c>
     </row>
@@ -7169,7 +7156,7 @@
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>0.64428278949741968</v>
       </c>
     </row>
@@ -7180,7 +7167,7 @@
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>0.58148774959524629</v>
       </c>
     </row>
@@ -7191,7 +7178,7 @@
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>0.47987053068815289</v>
       </c>
     </row>
@@ -7202,7 +7189,7 @@
       <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>0.53519713194972196</v>
       </c>
     </row>
@@ -7213,7 +7200,7 @@
       <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>0.61316340323935836</v>
       </c>
     </row>
@@ -7224,7 +7211,7 @@
       <c r="B61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <v>0.58295933353271512</v>
       </c>
     </row>
@@ -7235,7 +7222,7 @@
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>0.64504998380446721</v>
       </c>
     </row>
@@ -7246,7 +7233,7 @@
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <v>0.64997015708457673</v>
       </c>
     </row>
@@ -7257,7 +7244,7 @@
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <v>0.57100857215671241</v>
       </c>
     </row>
@@ -7268,7 +7255,7 @@
       <c r="B65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <v>0.51440618203905442</v>
       </c>
     </row>
@@ -7279,7 +7266,7 @@
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <v>0.53024395871207708</v>
       </c>
     </row>
@@ -7290,7 +7277,7 @@
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <v>0.65169605471615755</v>
       </c>
     </row>
@@ -7301,7 +7288,7 @@
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <v>0.5624293501495945</v>
       </c>
     </row>
@@ -7312,7 +7299,7 @@
       <c r="B69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <v>0.48038551705640858</v>
       </c>
     </row>
@@ -7323,7 +7310,7 @@
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <v>0.54679659534899383</v>
       </c>
     </row>
@@ -7334,7 +7321,7 @@
       <c r="B71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <v>0.60577242504525597</v>
       </c>
     </row>
@@ -7345,7 +7332,7 @@
       <c r="B72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <v>0.56080661501239215</v>
       </c>
     </row>
@@ -7356,7 +7343,7 @@
       <c r="B73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>0.53665525942366377</v>
       </c>
     </row>
@@ -7367,7 +7354,7 @@
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="4">
         <v>0.5999059427085951</v>
       </c>
     </row>
@@ -7378,7 +7365,7 @@
       <c r="B75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="4">
         <v>0.59195043275285208</v>
       </c>
     </row>
@@ -7389,7 +7376,7 @@
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="4">
         <v>0.56888585352788545</v>
       </c>
     </row>
@@ -7400,7 +7387,7 @@
       <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="4">
         <v>0.53927599643260893</v>
       </c>
     </row>
@@ -7411,7 +7398,7 @@
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="4">
         <v>0.52432235768230884</v>
       </c>
     </row>
@@ -7422,7 +7409,7 @@
       <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="4">
         <v>0.63293641454655369</v>
       </c>
     </row>
@@ -7433,7 +7420,7 @@
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="4">
         <v>0.55306252021402358</v>
       </c>
     </row>
@@ -7444,7 +7431,7 @@
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="4">
         <v>0.47146066926984903</v>
       </c>
     </row>
@@ -7455,7 +7442,7 @@
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="4">
         <v>0.51267262398267766</v>
       </c>
     </row>
@@ -7466,7 +7453,7 @@
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="4">
         <v>0.60850748569637469</v>
       </c>
     </row>
@@ -7477,7 +7464,7 @@
       <c r="B84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="4">
         <v>0.55760277183237916</v>
       </c>
     </row>
@@ -7488,7 +7475,7 @@
       <c r="B85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="4">
         <v>0.5296001587298681</v>
       </c>
     </row>
@@ -7499,7 +7486,7 @@
       <c r="B86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="4">
         <v>0.59366509104094733</v>
       </c>
     </row>
@@ -7510,7 +7497,7 @@
       <c r="B87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="4">
         <v>0.40240241309958336</v>
       </c>
     </row>
@@ -7521,7 +7508,7 @@
       <c r="B88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="4">
         <v>4.2700523105594274E-2</v>
       </c>
     </row>
@@ -7532,7 +7519,7 @@
       <c r="B89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="4">
         <v>5.031179257355145E-2</v>
       </c>
     </row>
@@ -7543,7 +7530,7 @@
       <c r="B90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="4">
         <v>9.0078502587924589E-2</v>
       </c>
     </row>
@@ -7554,7 +7541,7 @@
       <c r="B91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="4">
         <v>0.18489792773827149</v>
       </c>
     </row>
@@ -7565,7 +7552,7 @@
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="4">
         <v>0.19317247944275789</v>
       </c>
     </row>
@@ -7576,7 +7563,7 @@
       <c r="B93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="4">
         <v>0.22986803479270998</v>
       </c>
     </row>
@@ -7587,7 +7574,7 @@
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="4">
         <v>0.29196975257746793</v>
       </c>
     </row>
@@ -7598,7 +7585,7 @@
       <c r="B95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="4">
         <v>0.33031557329740807</v>
       </c>
     </row>
@@ -7609,7 +7596,7 @@
       <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="4">
         <v>0.31834104569450766</v>
       </c>
     </row>
@@ -7620,7 +7607,7 @@
       <c r="B97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="4">
         <v>0.24565943237689944</v>
       </c>
     </row>
@@ -7631,7 +7618,7 @@
       <c r="B98" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="4">
         <v>0.24971417972538307</v>
       </c>
     </row>
@@ -7642,7 +7629,7 @@
       <c r="B99" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="4">
         <v>0.34533487156907383</v>
       </c>
     </row>
@@ -7653,7 +7640,7 @@
       <c r="B100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="4">
         <v>0.39077033290498525</v>
       </c>
     </row>
@@ -7664,7 +7651,7 @@
       <c r="B101" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="4">
         <v>0.39612738036477296</v>
       </c>
     </row>
@@ -7675,7 +7662,7 @@
       <c r="B102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="4">
         <v>0.4461799322964437</v>
       </c>
     </row>
@@ -7686,7 +7673,7 @@
       <c r="B103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="4">
         <v>0.52053164270007091</v>
       </c>
     </row>
@@ -7697,7 +7684,7 @@
       <c r="B104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="4">
         <v>0.4145092002663438</v>
       </c>
     </row>
@@ -7708,7 +7695,7 @@
       <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="4">
         <v>0.38881529296896955</v>
       </c>
     </row>
@@ -7719,7 +7706,7 @@
       <c r="B106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="4">
         <v>0.47829450502318593</v>
       </c>
     </row>
@@ -7730,7 +7717,7 @@
       <c r="B107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="4">
         <v>0.55151936906008092</v>
       </c>
     </row>
@@ -7741,7 +7728,7 @@
       <c r="B108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="4">
         <v>0.54042330499475988</v>
       </c>
     </row>
@@ -7752,7 +7739,7 @@
       <c r="B109" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="4">
         <v>0.43834182552253853</v>
       </c>
     </row>
@@ -7763,7 +7750,7 @@
       <c r="B110" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="4">
         <v>0.50781662318186516</v>
       </c>
     </row>
@@ -7774,7 +7761,7 @@
       <c r="B111" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="4">
         <v>0.54587669428259755</v>
       </c>
     </row>
@@ -7785,7 +7772,7 @@
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="4">
         <v>0.56088631818330925</v>
       </c>
     </row>
@@ -7796,7 +7783,7 @@
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="4">
         <v>0.55728299965018691</v>
       </c>
     </row>
@@ -7807,7 +7794,7 @@
       <c r="B114" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="4">
         <v>0.52730535289491143</v>
       </c>
     </row>
@@ -7818,7 +7805,7 @@
       <c r="B115" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="4">
         <v>0.58643162537817994</v>
       </c>
     </row>
@@ -7829,7 +7816,7 @@
       <c r="B116" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="4">
         <v>0.53819811254333649</v>
       </c>
     </row>
@@ -7840,7 +7827,7 @@
       <c r="B117" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="4">
         <v>0.48672260696726122</v>
       </c>
     </row>
@@ -7851,7 +7838,7 @@
       <c r="B118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="4">
         <v>0.53167752079170838</v>
       </c>
     </row>
@@ -7862,7 +7849,7 @@
       <c r="B119" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="4">
         <v>0.59363250304252568</v>
       </c>
     </row>
@@ -7873,7 +7860,7 @@
       <c r="B120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="4">
         <v>0.55329316308283616</v>
       </c>
     </row>
@@ -7884,7 +7871,7 @@
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="4">
         <v>0.53603075135494649</v>
       </c>
     </row>
@@ -7895,7 +7882,7 @@
       <c r="B122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="4">
         <v>0.63028129854407255</v>
       </c>
     </row>
@@ -7906,7 +7893,7 @@
       <c r="B123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="4">
         <v>0.63718371804777341</v>
       </c>
     </row>
@@ -7917,7 +7904,7 @@
       <c r="B124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="4">
         <v>0.60074409194792433</v>
       </c>
     </row>
@@ -7928,7 +7915,7 @@
       <c r="B125" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="4">
         <v>0.55513985921778319</v>
       </c>
     </row>
@@ -7939,7 +7926,7 @@
       <c r="B126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="4">
         <v>0.56805909269121224</v>
       </c>
     </row>
@@ -7950,7 +7937,7 @@
       <c r="B127" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="4">
         <v>0.58521220416540887</v>
       </c>
     </row>
@@ -7961,7 +7948,7 @@
       <c r="B128" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="4">
         <v>0.55328293002566309</v>
       </c>
     </row>
@@ -7972,7 +7959,7 @@
       <c r="B129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="4">
         <v>0.5035658681415045</v>
       </c>
     </row>
@@ -7983,7 +7970,7 @@
       <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="4">
         <v>0.53469592061846238</v>
       </c>
     </row>
@@ -7994,7 +7981,7 @@
       <c r="B131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="4">
         <v>0.63757753283254415</v>
       </c>
     </row>
@@ -8005,7 +7992,7 @@
       <c r="B132" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="4">
         <v>0.56436043090112809</v>
       </c>
     </row>
